--- a/biology/Botanique/Geum_japonicum/Geum_japonicum.xlsx
+++ b/biology/Botanique/Geum_japonicum/Geum_japonicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geum japonicum est une espèce de plantes à fleurs du genre Geum (les benoîtes) et de la famille des Rosaceae.
 C'est une plante herbacée vivace.
-Geum japonicum contient l'ellagitanin tellimagrandine II, un composé ayant une activité contre le virus de l'herpès[2].
+Geum japonicum contient l'ellagitanin tellimagrandine II, un composé ayant une activité contre le virus de l'herpès.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Geum japonicum a pour synonymes selon Plants of the World online (POWO)                (18 février 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Geum japonicum a pour synonymes selon Plants of the World online (POWO)                (18 février 2021) :
 Geum iyoanum Koidz.
 Geum japonicum f. iyoanum (Koidz.) H.Ikeda
 Geum japonicum f. pleniflorum Okuhara ex T.Shimizu
@@ -547,9 +561,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (18 février 2021)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (18 février 2021) (Attention liste brute contenant possiblement des synonymes) :
 Geum japonicum var. chinense F. Bolle
 Geum japonicum var. fauriei Kudô
 Geum japonicum var. japonicum
